--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/123/word_level_predictions_123.xlsx
@@ -814,728 +814,728 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>You</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>You</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2426,416 +2426,416 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" t="n">
         <v>3</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3570,104 +3570,104 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4246,156 +4246,156 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G94" s="2" t="b">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6274,104 +6274,104 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" s="2" t="inlineStr">
         <is>
           <t>Recharge</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E113" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="G114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6586,156 +6586,156 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6898,676 +6898,676 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>13</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>13</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>move</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>3</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>13</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>4</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>13</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>5</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>13</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>6</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>13</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>from</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>7</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>13</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>potential</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>8</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>13</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>9</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>13</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>10</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>13</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>11</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>13</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>calibrate</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>12</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>13</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>13</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" t="n">
         <v>13</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" t="n">
         <v>14</v>
       </c>
-      <c r="E137" s="2" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F137" s="2" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G145" s="2" t="b">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G168" s="2" t="b">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13294,104 +13294,104 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Adjust</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>antennas</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="E249" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="F249" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15478,208 +15478,208 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="n">
+      <c r="A290" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B290" t="inlineStr">
+      <c r="B290" s="2" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
+      <c r="C290" s="2" t="inlineStr">
         <is>
           <t>Ensure</t>
         </is>
       </c>
-      <c r="D290" t="n">
+      <c r="D290" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E290" t="inlineStr">
+      <c r="E290" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G290" t="b">
-        <v>1</v>
-      </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I290" t="b">
-        <v>1</v>
-      </c>
-      <c r="J290" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K290" t="b">
-        <v>1</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F290" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G290" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H290" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I290" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J290" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K290" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L290" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
+      <c r="A291" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="B291" s="2" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+      <c r="C291" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D291" t="n">
+      <c r="D291" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G291" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" t="b">
-        <v>1</v>
-      </c>
-      <c r="J291" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K291" t="b">
-        <v>1</v>
-      </c>
-      <c r="L291" t="inlineStr">
+      <c r="E291" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F291" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G291" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J291" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K291" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L291" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
+      <c r="A292" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B292" s="2" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C292" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D292" t="n">
+      <c r="D292" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G292" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I292" t="b">
-        <v>1</v>
-      </c>
-      <c r="J292" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K292" t="b">
-        <v>1</v>
-      </c>
-      <c r="L292" t="inlineStr">
+      <c r="E292" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F292" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G292" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I292" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J292" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K292" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L292" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
+      <c r="A293" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B293" s="2" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="C293" s="2" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="D293" t="n">
+      <c r="D293" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E293" t="inlineStr">
+      <c r="E293" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
+      <c r="F293" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G293" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I293" t="b">
-        <v>1</v>
-      </c>
-      <c r="J293" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K293" t="b">
-        <v>1</v>
-      </c>
-      <c r="L293" t="inlineStr">
+      <c r="G293" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H293" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J293" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L293" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15946,574 +15946,574 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
+      <c r="A299" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="B299" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
+      <c r="C299" s="2" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D299" t="n">
+      <c r="D299" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E299" t="inlineStr">
+      <c r="E299" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G299" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I299" t="b">
-        <v>1</v>
-      </c>
-      <c r="J299" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K299" t="b">
-        <v>1</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F299" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G299" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H299" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I299" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J299" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K299" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L299" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
+      <c r="A300" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B300" t="inlineStr">
+      <c r="B300" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
+      <c r="C300" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D300" t="n">
+      <c r="D300" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I300" t="b">
-        <v>1</v>
-      </c>
-      <c r="J300" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K300" t="b">
-        <v>1</v>
-      </c>
-      <c r="L300" t="inlineStr">
+      <c r="E300" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F300" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G300" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H300" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I300" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J300" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K300" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L300" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
+      <c r="A301" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B301" t="inlineStr">
+      <c r="B301" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
+      <c r="C301" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D301" t="n">
+      <c r="D301" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G301" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I301" t="b">
-        <v>1</v>
-      </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K301" t="b">
-        <v>1</v>
-      </c>
-      <c r="L301" t="inlineStr">
+      <c r="E301" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F301" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G301" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H301" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I301" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J301" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K301" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L301" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n">
+      <c r="A302" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B302" t="inlineStr">
+      <c r="B302" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
+      <c r="C302" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D302" t="n">
+      <c r="D302" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G302" t="b">
-        <v>1</v>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I302" t="b">
-        <v>1</v>
-      </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K302" t="b">
-        <v>1</v>
-      </c>
-      <c r="L302" t="inlineStr">
+      <c r="E302" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F302" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G302" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H302" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I302" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J302" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K302" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L302" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
+      <c r="A303" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B303" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
+      <c r="C303" s="2" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="D303" t="n">
+      <c r="D303" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G303" t="b">
-        <v>1</v>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I303" t="b">
-        <v>1</v>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K303" t="b">
-        <v>1</v>
-      </c>
-      <c r="L303" t="inlineStr">
+      <c r="E303" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F303" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G303" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H303" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I303" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J303" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K303" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L303" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
+      <c r="A304" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B304" t="inlineStr">
+      <c r="B304" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
+      <c r="C304" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D304" t="n">
+      <c r="D304" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G304" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I304" t="b">
-        <v>1</v>
-      </c>
-      <c r="J304" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K304" t="b">
-        <v>1</v>
-      </c>
-      <c r="L304" t="inlineStr">
+      <c r="E304" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F304" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G304" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H304" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I304" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J304" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K304" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L304" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
+      <c r="A305" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B305" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
+      <c r="C305" s="2" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="D305" t="n">
+      <c r="D305" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G305" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I305" t="b">
-        <v>1</v>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K305" t="b">
-        <v>1</v>
-      </c>
-      <c r="L305" t="inlineStr">
+      <c r="E305" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F305" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G305" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H305" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I305" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J305" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K305" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L305" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
+      <c r="A306" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B306" t="inlineStr">
+      <c r="B306" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
+      <c r="C306" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D306" t="n">
+      <c r="D306" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G306" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I306" t="b">
-        <v>1</v>
-      </c>
-      <c r="J306" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K306" t="b">
-        <v>1</v>
-      </c>
-      <c r="L306" t="inlineStr">
+      <c r="E306" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F306" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G306" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H306" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I306" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J306" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K306" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L306" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
+      <c r="A307" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B307" t="inlineStr">
+      <c r="B307" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
+      <c r="C307" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D307" t="n">
+      <c r="D307" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G307" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I307" t="b">
-        <v>1</v>
-      </c>
-      <c r="J307" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K307" t="b">
-        <v>1</v>
-      </c>
-      <c r="L307" t="inlineStr">
+      <c r="E307" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F307" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G307" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H307" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I307" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J307" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K307" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L307" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
+      <c r="A308" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="B308" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
+      <c r="C308" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D308" t="n">
+      <c r="D308" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G308" t="b">
-        <v>1</v>
-      </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I308" t="b">
-        <v>1</v>
-      </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K308" t="b">
-        <v>1</v>
-      </c>
-      <c r="L308" t="inlineStr">
+      <c r="E308" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F308" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G308" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H308" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I308" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J308" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K308" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L308" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
+      <c r="A309" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B309" t="inlineStr">
+      <c r="B309" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
+      <c r="C309" s="2" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D309" t="n">
+      <c r="D309" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E309" t="inlineStr">
+      <c r="E309" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G309" t="b">
-        <v>1</v>
-      </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I309" t="b">
-        <v>1</v>
-      </c>
-      <c r="J309" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K309" t="b">
-        <v>1</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F309" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G309" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H309" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I309" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J309" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K309" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L309" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20210,260 +20210,260 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="n">
+      <c r="A381" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B381" t="inlineStr">
+      <c r="B381" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr">
+      <c r="C381" s="2" t="inlineStr">
         <is>
           <t>Lightly</t>
         </is>
       </c>
-      <c r="D381" t="n">
+      <c r="D381" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E381" t="inlineStr">
+      <c r="E381" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G381" t="b">
-        <v>1</v>
-      </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I381" t="b">
-        <v>1</v>
-      </c>
-      <c r="J381" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K381" t="b">
-        <v>1</v>
-      </c>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F381" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G381" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H381" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I381" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J381" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K381" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L381" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="n">
+      <c r="A382" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B382" t="inlineStr">
+      <c r="B382" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr">
+      <c r="C382" s="2" t="inlineStr">
         <is>
           <t>press</t>
         </is>
       </c>
-      <c r="D382" t="n">
+      <c r="D382" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E382" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G382" t="b">
-        <v>1</v>
-      </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I382" t="b">
-        <v>1</v>
-      </c>
-      <c r="J382" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K382" t="b">
-        <v>1</v>
-      </c>
-      <c r="L382" t="inlineStr">
+      <c r="E382" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F382" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G382" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H382" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I382" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J382" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K382" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L382" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="n">
+      <c r="A383" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B383" t="inlineStr">
+      <c r="B383" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr">
+      <c r="C383" s="2" t="inlineStr">
         <is>
           <t>it</t>
         </is>
       </c>
-      <c r="D383" t="n">
+      <c r="D383" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E383" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G383" t="b">
-        <v>1</v>
-      </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I383" t="b">
-        <v>1</v>
-      </c>
-      <c r="J383" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K383" t="b">
-        <v>1</v>
-      </c>
-      <c r="L383" t="inlineStr">
+      <c r="E383" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F383" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G383" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H383" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I383" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J383" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K383" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L383" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="n">
+      <c r="A384" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B384" t="inlineStr">
+      <c r="B384" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr">
+      <c r="C384" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D384" t="n">
+      <c r="D384" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E384" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G384" t="b">
-        <v>1</v>
-      </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I384" t="b">
-        <v>1</v>
-      </c>
-      <c r="J384" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K384" t="b">
-        <v>1</v>
-      </c>
-      <c r="L384" t="inlineStr">
+      <c r="E384" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F384" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G384" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H384" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I384" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J384" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K384" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L384" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="n">
+      <c r="A385" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B385" t="inlineStr">
+      <c r="B385" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr">
+      <c r="C385" s="2" t="inlineStr">
         <is>
           <t>adjust</t>
         </is>
       </c>
-      <c r="D385" t="n">
+      <c r="D385" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E385" t="inlineStr">
+      <c r="E385" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F385" t="inlineStr">
+      <c r="F385" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G385" t="b">
-        <v>1</v>
-      </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I385" t="b">
-        <v>1</v>
-      </c>
-      <c r="J385" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K385" t="b">
-        <v>1</v>
-      </c>
-      <c r="L385" t="inlineStr">
+      <c r="G385" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H385" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I385" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J385" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K385" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L385" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20597,7 +20597,7 @@
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G388" s="2" t="b">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="L388" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
@@ -22186,260 +22186,260 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="2" t="n">
+      <c r="A419" t="n">
         <v>38</v>
       </c>
-      <c r="B419" s="2" t="inlineStr">
+      <c r="B419" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C419" s="2" t="inlineStr">
+      <c r="C419" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D419" s="2" t="n">
+      <c r="D419" t="n">
         <v>4</v>
       </c>
-      <c r="E419" s="2" t="inlineStr">
+      <c r="E419" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F419" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G419" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H419" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I419" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J419" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K419" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L419" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G419" t="b">
+        <v>1</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I419" t="b">
+        <v>1</v>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K419" t="b">
+        <v>1</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="2" t="n">
+      <c r="A420" t="n">
         <v>38</v>
       </c>
-      <c r="B420" s="2" t="inlineStr">
+      <c r="B420" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C420" s="2" t="inlineStr">
+      <c r="C420" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D420" s="2" t="n">
+      <c r="D420" t="n">
         <v>5</v>
       </c>
-      <c r="E420" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F420" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G420" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H420" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I420" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J420" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K420" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L420" s="2" t="inlineStr">
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G420" t="b">
+        <v>1</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I420" t="b">
+        <v>1</v>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K420" t="b">
+        <v>1</v>
+      </c>
+      <c r="L420" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="2" t="n">
+      <c r="A421" t="n">
         <v>38</v>
       </c>
-      <c r="B421" s="2" t="inlineStr">
+      <c r="B421" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C421" s="2" t="inlineStr">
+      <c r="C421" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D421" s="2" t="n">
+      <c r="D421" t="n">
         <v>6</v>
       </c>
-      <c r="E421" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F421" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G421" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H421" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I421" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J421" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K421" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L421" s="2" t="inlineStr">
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G421" t="b">
+        <v>1</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I421" t="b">
+        <v>1</v>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K421" t="b">
+        <v>1</v>
+      </c>
+      <c r="L421" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="2" t="n">
+      <c r="A422" t="n">
         <v>38</v>
       </c>
-      <c r="B422" s="2" t="inlineStr">
+      <c r="B422" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C422" s="2" t="inlineStr">
+      <c r="C422" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D422" s="2" t="n">
+      <c r="D422" t="n">
         <v>7</v>
       </c>
-      <c r="E422" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F422" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G422" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H422" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I422" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J422" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K422" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L422" s="2" t="inlineStr">
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G422" t="b">
+        <v>1</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I422" t="b">
+        <v>1</v>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K422" t="b">
+        <v>1</v>
+      </c>
+      <c r="L422" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="2" t="n">
+      <c r="A423" t="n">
         <v>38</v>
       </c>
-      <c r="B423" s="2" t="inlineStr">
+      <c r="B423" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C423" s="2" t="inlineStr">
+      <c r="C423" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D423" s="2" t="n">
+      <c r="D423" t="n">
         <v>8</v>
       </c>
-      <c r="E423" s="2" t="inlineStr">
+      <c r="E423" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F423" s="2" t="inlineStr">
+      <c r="F423" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G423" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H423" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I423" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J423" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K423" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L423" s="2" t="inlineStr">
+      <c r="G423" t="b">
+        <v>1</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I423" t="b">
+        <v>1</v>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K423" t="b">
+        <v>1</v>
+      </c>
+      <c r="L423" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -22498,158 +22498,158 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="n">
+      <c r="A425" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B425" t="inlineStr">
+      <c r="B425" s="2" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C425" t="inlineStr">
+      <c r="C425" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D425" t="n">
-        <v>0</v>
-      </c>
-      <c r="E425" t="inlineStr">
+      <c r="D425" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E425" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F425" t="inlineStr">
+      <c r="F425" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G425" t="b">
-        <v>1</v>
-      </c>
-      <c r="H425" t="inlineStr">
+      <c r="G425" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H425" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I425" t="b">
-        <v>1</v>
-      </c>
-      <c r="J425" t="inlineStr">
+      <c r="I425" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J425" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K425" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L425" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B426" s="2" t="inlineStr">
+        <is>
+          <t>Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C426" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D426" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E426" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F426" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G426" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H426" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K425" t="b">
-        <v>1</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="n">
+      <c r="I426" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J426" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K426" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L426" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B426" t="inlineStr">
+      <c r="B427" s="2" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D426" t="n">
-        <v>1</v>
-      </c>
-      <c r="E426" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G426" t="b">
-        <v>1</v>
-      </c>
-      <c r="H426" t="inlineStr">
+      <c r="C427" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D427" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E427" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F427" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G427" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H427" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I426" t="b">
-        <v>1</v>
-      </c>
-      <c r="J426" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K426" t="b">
-        <v>1</v>
-      </c>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="n">
-        <v>39</v>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D427" t="n">
-        <v>2</v>
-      </c>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G427" t="b">
-        <v>1</v>
-      </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I427" t="b">
-        <v>1</v>
-      </c>
-      <c r="J427" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K427" t="b">
-        <v>1</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I427" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J427" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K427" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L427" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="F436" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G436" s="2" t="b">
@@ -23117,7 +23117,7 @@
       </c>
       <c r="L436" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23717,7 +23717,7 @@
       </c>
       <c r="F448" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G448" s="2" t="b">
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23741,7 +23741,7 @@
       </c>
       <c r="L448" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23769,7 +23769,7 @@
       </c>
       <c r="F449" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G449" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="L449" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -23850,260 +23850,260 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="2" t="n">
+      <c r="A451" t="n">
         <v>41</v>
       </c>
-      <c r="B451" s="2" t="inlineStr">
+      <c r="B451" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C451" s="2" t="inlineStr">
+      <c r="C451" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D451" s="2" t="n">
+      <c r="D451" t="n">
         <v>4</v>
       </c>
-      <c r="E451" s="2" t="inlineStr">
+      <c r="E451" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F451" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G451" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H451" s="2" t="inlineStr">
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G451" t="b">
+        <v>1</v>
+      </c>
+      <c r="H451" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I451" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J451" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K451" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L451" s="2" t="inlineStr">
+      <c r="I451" t="b">
+        <v>1</v>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K451" t="b">
+        <v>1</v>
+      </c>
+      <c r="L451" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="2" t="n">
+      <c r="A452" t="n">
         <v>41</v>
       </c>
-      <c r="B452" s="2" t="inlineStr">
+      <c r="B452" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C452" s="2" t="inlineStr">
+      <c r="C452" t="inlineStr">
         <is>
           <t>enable</t>
         </is>
       </c>
-      <c r="D452" s="2" t="n">
+      <c r="D452" t="n">
         <v>5</v>
       </c>
-      <c r="E452" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F452" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G452" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H452" s="2" t="inlineStr">
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G452" t="b">
+        <v>1</v>
+      </c>
+      <c r="H452" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I452" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J452" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K452" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L452" s="2" t="inlineStr">
+      <c r="I452" t="b">
+        <v>1</v>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K452" t="b">
+        <v>1</v>
+      </c>
+      <c r="L452" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>41</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Follow</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>6</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>41</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>Me</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>7</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>41</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>8</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
+      <c r="E455" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F455" s="2" t="inlineStr">
+      <c r="F455" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25514,366 +25514,366 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="n">
+      <c r="A483" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B483" t="inlineStr">
+      <c r="B483" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
+      <c r="C483" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D483" t="n">
-        <v>0</v>
-      </c>
-      <c r="E483" t="inlineStr">
+      <c r="D483" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" t="inlineStr">
+      <c r="F483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" t="inlineStr">
+      <c r="G483" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I483" t="b">
-        <v>1</v>
-      </c>
-      <c r="J483" t="inlineStr">
+      <c r="I483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J483" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L483" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B484" s="2" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C484" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D484" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E484" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F484" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G484" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K483" t="b">
-        <v>1</v>
-      </c>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="n">
+      <c r="I484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J484" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L484" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B484" t="inlineStr">
+      <c r="B485" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D484" t="n">
-        <v>1</v>
-      </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G484" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" t="inlineStr">
+      <c r="C485" s="2" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D485" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E485" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F485" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G485" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H485" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I484" t="b">
-        <v>1</v>
-      </c>
-      <c r="J484" t="inlineStr">
+      <c r="I485" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J485" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K485" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L485" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B486" s="2" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C486" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D486" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E486" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F486" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G486" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H486" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K484" t="b">
-        <v>1</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="n">
+      <c r="I486" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J486" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K486" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L486" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B485" t="inlineStr">
+      <c r="B487" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D485" t="n">
-        <v>2</v>
-      </c>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F485" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G485" t="b">
-        <v>1</v>
-      </c>
-      <c r="H485" t="inlineStr">
+      <c r="C487" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D487" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E487" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F487" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G487" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H487" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I485" t="b">
-        <v>1</v>
-      </c>
-      <c r="J485" t="inlineStr">
+      <c r="I487" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J487" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K487" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L487" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B488" s="2" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C488" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D488" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E488" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F488" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G488" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H488" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K485" t="b">
-        <v>1</v>
-      </c>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="n">
+      <c r="I488" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J488" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K488" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L488" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B486" t="inlineStr">
+      <c r="B489" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D486" t="n">
-        <v>3</v>
-      </c>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F486" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G486" t="b">
-        <v>1</v>
-      </c>
-      <c r="H486" t="inlineStr">
+      <c r="C489" s="2" t="inlineStr">
+        <is>
+          <t>slow</t>
+        </is>
+      </c>
+      <c r="D489" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E489" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F489" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G489" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H489" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I486" t="b">
-        <v>1</v>
-      </c>
-      <c r="J486" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K486" t="b">
-        <v>1</v>
-      </c>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="n">
-        <v>45</v>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D487" t="n">
-        <v>4</v>
-      </c>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F487" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G487" t="b">
-        <v>1</v>
-      </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I487" t="b">
-        <v>1</v>
-      </c>
-      <c r="J487" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K487" t="b">
-        <v>1</v>
-      </c>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="n">
-        <v>45</v>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D488" t="n">
-        <v>5</v>
-      </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F488" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G488" t="b">
-        <v>1</v>
-      </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I488" t="b">
-        <v>1</v>
-      </c>
-      <c r="J488" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K488" t="b">
-        <v>1</v>
-      </c>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="n">
-        <v>45</v>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>slow</t>
-        </is>
-      </c>
-      <c r="D489" t="n">
-        <v>6</v>
-      </c>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F489" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G489" t="b">
-        <v>1</v>
-      </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I489" t="b">
-        <v>1</v>
-      </c>
-      <c r="J489" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K489" t="b">
-        <v>1</v>
-      </c>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I489" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J489" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K489" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L489" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -25901,7 +25901,7 @@
       </c>
       <c r="F490" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G490" s="2" t="b">
@@ -25913,11 +25913,11 @@
         </is>
       </c>
       <c r="I490" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J490" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K490" s="2" t="b">
@@ -25965,11 +25965,11 @@
         </is>
       </c>
       <c r="I491" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J491" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K491" s="2" t="b">
@@ -26017,11 +26017,11 @@
         </is>
       </c>
       <c r="I492" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J492" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K492" s="2" t="b">
@@ -26069,11 +26069,11 @@
         </is>
       </c>
       <c r="I493" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J493" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K493" s="2" t="b">
@@ -26121,11 +26121,11 @@
         </is>
       </c>
       <c r="I494" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J494" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K494" s="2" t="b">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26173,11 +26173,11 @@
         </is>
       </c>
       <c r="I495" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J495" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/123/word_level_predictions_123.xlsx
@@ -814,728 +814,728 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2426,416 +2426,416 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3570,104 +3570,104 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>5</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>3</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>5</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Gyroscope initialization failed Restart aircraft .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" t="n">
         <v>4</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4246,156 +4246,156 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" t="n">
         <v>7</v>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" t="n">
         <v>3</v>
       </c>
-      <c r="E74" s="2" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>7</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" t="n">
         <v>4</v>
       </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>7</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" t="n">
         <v>5</v>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G94" s="2" t="b">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
     </row>
@@ -6274,104 +6274,104 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" t="n">
         <v>11</v>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C113" s="2" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Recharge</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" t="n">
         <v>3</v>
       </c>
-      <c r="E113" s="2" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" t="n">
         <v>11</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" t="n">
         <v>4</v>
       </c>
-      <c r="E114" s="2" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F114" s="2" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="inlineStr">
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6586,156 +6586,156 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>12</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>3</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>12</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>4</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>12</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>5</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6898,676 +6898,676 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>move</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>from</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>potential</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>calibrate</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" s="2" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E137" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F137" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G145" s="2" t="b">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G168" s="2" t="b">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13294,104 +13294,104 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>22</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Adjust</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>2</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>22</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>antennas</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>3</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F249" s="2" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15478,208 +15478,208 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2" t="n">
+      <c r="A290" t="n">
         <v>26</v>
       </c>
-      <c r="B290" s="2" t="inlineStr">
+      <c r="B290" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C290" s="2" t="inlineStr">
+      <c r="C290" t="inlineStr">
         <is>
           <t>Ensure</t>
         </is>
       </c>
-      <c r="D290" s="2" t="n">
+      <c r="D290" t="n">
         <v>3</v>
       </c>
-      <c r="E290" s="2" t="inlineStr">
+      <c r="E290" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F290" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G290" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H290" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I290" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K290" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L290" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G290" t="b">
+        <v>1</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I290" t="b">
+        <v>1</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K290" t="b">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" t="n">
         <v>26</v>
       </c>
-      <c r="B291" s="2" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C291" s="2" t="inlineStr">
+      <c r="C291" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D291" s="2" t="n">
+      <c r="D291" t="n">
         <v>4</v>
       </c>
-      <c r="E291" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F291" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G291" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L291" s="2" t="inlineStr">
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K291" t="b">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
+      <c r="A292" t="n">
         <v>26</v>
       </c>
-      <c r="B292" s="2" t="inlineStr">
+      <c r="B292" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C292" s="2" t="inlineStr">
+      <c r="C292" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D292" s="2" t="n">
+      <c r="D292" t="n">
         <v>5</v>
       </c>
-      <c r="E292" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F292" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G292" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L292" s="2" t="inlineStr">
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G292" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I292" t="b">
+        <v>1</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K292" t="b">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
+      <c r="A293" t="n">
         <v>26</v>
       </c>
-      <c r="B293" s="2" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C293" s="2" t="inlineStr">
+      <c r="C293" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="D293" s="2" t="n">
+      <c r="D293" t="n">
         <v>6</v>
       </c>
-      <c r="E293" s="2" t="inlineStr">
+      <c r="E293" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F293" s="2" t="inlineStr">
+      <c r="F293" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G293" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L293" s="2" t="inlineStr">
+      <c r="G293" t="b">
+        <v>1</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I293" t="b">
+        <v>1</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K293" t="b">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15946,574 +15946,574 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="n">
+      <c r="A299" t="n">
         <v>27</v>
       </c>
-      <c r="B299" s="2" t="inlineStr">
+      <c r="B299" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C299" s="2" t="inlineStr">
+      <c r="C299" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D299" s="2" t="n">
+      <c r="D299" t="n">
         <v>4</v>
       </c>
-      <c r="E299" s="2" t="inlineStr">
+      <c r="E299" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F299" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G299" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I299" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K299" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L299" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G299" t="b">
+        <v>1</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I299" t="b">
+        <v>1</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K299" t="b">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2" t="n">
+      <c r="A300" t="n">
         <v>27</v>
       </c>
-      <c r="B300" s="2" t="inlineStr">
+      <c r="B300" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C300" s="2" t="inlineStr">
+      <c r="C300" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D300" s="2" t="n">
+      <c r="D300" t="n">
         <v>5</v>
       </c>
-      <c r="E300" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F300" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G300" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I300" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K300" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L300" s="2" t="inlineStr">
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G300" t="b">
+        <v>1</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I300" t="b">
+        <v>1</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K300" t="b">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="n">
+      <c r="A301" t="n">
         <v>27</v>
       </c>
-      <c r="B301" s="2" t="inlineStr">
+      <c r="B301" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C301" s="2" t="inlineStr">
+      <c r="C301" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D301" s="2" t="n">
+      <c r="D301" t="n">
         <v>6</v>
       </c>
-      <c r="E301" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F301" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G301" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I301" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K301" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L301" s="2" t="inlineStr">
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G301" t="b">
+        <v>1</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I301" t="b">
+        <v>1</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K301" t="b">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="n">
+      <c r="A302" t="n">
         <v>27</v>
       </c>
-      <c r="B302" s="2" t="inlineStr">
+      <c r="B302" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C302" s="2" t="inlineStr">
+      <c r="C302" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D302" s="2" t="n">
+      <c r="D302" t="n">
         <v>7</v>
       </c>
-      <c r="E302" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F302" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G302" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H302" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I302" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K302" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L302" s="2" t="inlineStr">
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G302" t="b">
+        <v>1</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I302" t="b">
+        <v>1</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K302" t="b">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="n">
+      <c r="A303" t="n">
         <v>27</v>
       </c>
-      <c r="B303" s="2" t="inlineStr">
+      <c r="B303" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C303" s="2" t="inlineStr">
+      <c r="C303" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="D303" s="2" t="n">
+      <c r="D303" t="n">
         <v>8</v>
       </c>
-      <c r="E303" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F303" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G303" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H303" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I303" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K303" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L303" s="2" t="inlineStr">
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G303" t="b">
+        <v>1</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I303" t="b">
+        <v>1</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K303" t="b">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2" t="n">
+      <c r="A304" t="n">
         <v>27</v>
       </c>
-      <c r="B304" s="2" t="inlineStr">
+      <c r="B304" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C304" s="2" t="inlineStr">
+      <c r="C304" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D304" s="2" t="n">
+      <c r="D304" t="n">
         <v>9</v>
       </c>
-      <c r="E304" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F304" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G304" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I304" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K304" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L304" s="2" t="inlineStr">
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G304" t="b">
+        <v>1</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I304" t="b">
+        <v>1</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K304" t="b">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2" t="n">
+      <c r="A305" t="n">
         <v>27</v>
       </c>
-      <c r="B305" s="2" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C305" s="2" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="D305" s="2" t="n">
+      <c r="D305" t="n">
         <v>10</v>
       </c>
-      <c r="E305" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F305" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G305" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I305" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K305" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L305" s="2" t="inlineStr">
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G305" t="b">
+        <v>1</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I305" t="b">
+        <v>1</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K305" t="b">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2" t="n">
+      <c r="A306" t="n">
         <v>27</v>
       </c>
-      <c r="B306" s="2" t="inlineStr">
+      <c r="B306" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C306" s="2" t="inlineStr">
+      <c r="C306" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D306" s="2" t="n">
+      <c r="D306" t="n">
         <v>11</v>
       </c>
-      <c r="E306" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F306" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G306" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I306" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K306" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L306" s="2" t="inlineStr">
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G306" t="b">
+        <v>1</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I306" t="b">
+        <v>1</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K306" t="b">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2" t="n">
+      <c r="A307" t="n">
         <v>27</v>
       </c>
-      <c r="B307" s="2" t="inlineStr">
+      <c r="B307" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C307" s="2" t="inlineStr">
+      <c r="C307" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D307" s="2" t="n">
+      <c r="D307" t="n">
         <v>12</v>
       </c>
-      <c r="E307" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F307" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G307" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I307" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K307" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L307" s="2" t="inlineStr">
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G307" t="b">
+        <v>1</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I307" t="b">
+        <v>1</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K307" t="b">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="2" t="n">
+      <c r="A308" t="n">
         <v>27</v>
       </c>
-      <c r="B308" s="2" t="inlineStr">
+      <c r="B308" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C308" s="2" t="inlineStr">
+      <c r="C308" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D308" s="2" t="n">
+      <c r="D308" t="n">
         <v>13</v>
       </c>
-      <c r="E308" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F308" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G308" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H308" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I308" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K308" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L308" s="2" t="inlineStr">
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G308" t="b">
+        <v>1</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I308" t="b">
+        <v>1</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K308" t="b">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="2" t="n">
+      <c r="A309" t="n">
         <v>27</v>
       </c>
-      <c r="B309" s="2" t="inlineStr">
+      <c r="B309" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C309" s="2" t="inlineStr">
+      <c r="C309" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D309" s="2" t="n">
+      <c r="D309" t="n">
         <v>14</v>
       </c>
-      <c r="E309" s="2" t="inlineStr">
+      <c r="E309" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F309" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G309" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H309" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I309" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K309" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L309" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G309" t="b">
+        <v>1</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I309" t="b">
+        <v>1</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K309" t="b">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20210,260 +20210,260 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="2" t="n">
+      <c r="A381" t="n">
         <v>34</v>
       </c>
-      <c r="B381" s="2" t="inlineStr">
+      <c r="B381" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C381" s="2" t="inlineStr">
+      <c r="C381" t="inlineStr">
         <is>
           <t>Lightly</t>
         </is>
       </c>
-      <c r="D381" s="2" t="n">
+      <c r="D381" t="n">
         <v>5</v>
       </c>
-      <c r="E381" s="2" t="inlineStr">
+      <c r="E381" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F381" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G381" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H381" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I381" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J381" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K381" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L381" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G381" t="b">
+        <v>1</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I381" t="b">
+        <v>1</v>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K381" t="b">
+        <v>1</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="2" t="n">
+      <c r="A382" t="n">
         <v>34</v>
       </c>
-      <c r="B382" s="2" t="inlineStr">
+      <c r="B382" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C382" s="2" t="inlineStr">
+      <c r="C382" t="inlineStr">
         <is>
           <t>press</t>
         </is>
       </c>
-      <c r="D382" s="2" t="n">
+      <c r="D382" t="n">
         <v>6</v>
       </c>
-      <c r="E382" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F382" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G382" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H382" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I382" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J382" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K382" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L382" s="2" t="inlineStr">
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G382" t="b">
+        <v>1</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I382" t="b">
+        <v>1</v>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K382" t="b">
+        <v>1</v>
+      </c>
+      <c r="L382" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="2" t="n">
+      <c r="A383" t="n">
         <v>34</v>
       </c>
-      <c r="B383" s="2" t="inlineStr">
+      <c r="B383" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C383" s="2" t="inlineStr">
+      <c r="C383" t="inlineStr">
         <is>
           <t>it</t>
         </is>
       </c>
-      <c r="D383" s="2" t="n">
+      <c r="D383" t="n">
         <v>7</v>
       </c>
-      <c r="E383" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F383" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G383" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H383" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I383" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J383" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K383" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L383" s="2" t="inlineStr">
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G383" t="b">
+        <v>1</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I383" t="b">
+        <v>1</v>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K383" t="b">
+        <v>1</v>
+      </c>
+      <c r="L383" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="2" t="n">
+      <c r="A384" t="n">
         <v>34</v>
       </c>
-      <c r="B384" s="2" t="inlineStr">
+      <c r="B384" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C384" s="2" t="inlineStr">
+      <c r="C384" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D384" s="2" t="n">
+      <c r="D384" t="n">
         <v>8</v>
       </c>
-      <c r="E384" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F384" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G384" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H384" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I384" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J384" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K384" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L384" s="2" t="inlineStr">
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G384" t="b">
+        <v>1</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I384" t="b">
+        <v>1</v>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K384" t="b">
+        <v>1</v>
+      </c>
+      <c r="L384" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="2" t="n">
+      <c r="A385" t="n">
         <v>34</v>
       </c>
-      <c r="B385" s="2" t="inlineStr">
+      <c r="B385" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C385" s="2" t="inlineStr">
+      <c r="C385" t="inlineStr">
         <is>
           <t>adjust</t>
         </is>
       </c>
-      <c r="D385" s="2" t="n">
+      <c r="D385" t="n">
         <v>9</v>
       </c>
-      <c r="E385" s="2" t="inlineStr">
+      <c r="E385" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F385" s="2" t="inlineStr">
+      <c r="F385" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G385" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H385" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I385" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J385" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K385" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L385" s="2" t="inlineStr">
+      <c r="G385" t="b">
+        <v>1</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I385" t="b">
+        <v>1</v>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K385" t="b">
+        <v>1</v>
+      </c>
+      <c r="L385" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20597,7 +20597,7 @@
       </c>
       <c r="F388" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G388" s="2" t="b">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="L388" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
@@ -22186,260 +22186,260 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="n">
+      <c r="A419" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B419" t="inlineStr">
+      <c r="B419" s="2" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr">
+      <c r="C419" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D419" t="n">
+      <c r="D419" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E419" t="inlineStr">
+      <c r="E419" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G419" t="b">
-        <v>1</v>
-      </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I419" t="b">
-        <v>1</v>
-      </c>
-      <c r="J419" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K419" t="b">
-        <v>1</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F419" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G419" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H419" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I419" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J419" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K419" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L419" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="n">
+      <c r="A420" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B420" t="inlineStr">
+      <c r="B420" s="2" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr">
+      <c r="C420" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D420" t="n">
+      <c r="D420" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G420" t="b">
-        <v>1</v>
-      </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I420" t="b">
-        <v>1</v>
-      </c>
-      <c r="J420" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K420" t="b">
-        <v>1</v>
-      </c>
-      <c r="L420" t="inlineStr">
+      <c r="E420" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F420" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G420" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H420" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I420" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J420" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K420" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L420" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="n">
+      <c r="A421" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B421" t="inlineStr">
+      <c r="B421" s="2" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr">
+      <c r="C421" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D421" t="n">
+      <c r="D421" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E421" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G421" t="b">
-        <v>1</v>
-      </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I421" t="b">
-        <v>1</v>
-      </c>
-      <c r="J421" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K421" t="b">
-        <v>1</v>
-      </c>
-      <c r="L421" t="inlineStr">
+      <c r="E421" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F421" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G421" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H421" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I421" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J421" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K421" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L421" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="n">
+      <c r="A422" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B422" t="inlineStr">
+      <c r="B422" s="2" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr">
+      <c r="C422" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D422" t="n">
+      <c r="D422" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G422" t="b">
-        <v>1</v>
-      </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I422" t="b">
-        <v>1</v>
-      </c>
-      <c r="J422" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K422" t="b">
-        <v>1</v>
-      </c>
-      <c r="L422" t="inlineStr">
+      <c r="E422" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F422" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G422" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H422" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I422" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J422" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K422" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L422" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="n">
+      <c r="A423" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B423" t="inlineStr">
+      <c r="B423" s="2" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr">
+      <c r="C423" s="2" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D423" t="n">
+      <c r="D423" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E423" t="inlineStr">
+      <c r="E423" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F423" t="inlineStr">
+      <c r="F423" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G423" t="b">
-        <v>1</v>
-      </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I423" t="b">
-        <v>1</v>
-      </c>
-      <c r="J423" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K423" t="b">
-        <v>1</v>
-      </c>
-      <c r="L423" t="inlineStr">
+      <c r="G423" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H423" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I423" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J423" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K423" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L423" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -22498,158 +22498,158 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="2" t="n">
+      <c r="A425" t="n">
         <v>39</v>
       </c>
-      <c r="B425" s="2" t="inlineStr">
+      <c r="B425" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C425" s="2" t="inlineStr">
+      <c r="C425" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D425" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E425" s="2" t="inlineStr">
+      <c r="D425" t="n">
+        <v>0</v>
+      </c>
+      <c r="E425" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F425" s="2" t="inlineStr">
+      <c r="F425" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G425" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H425" s="2" t="inlineStr">
+      <c r="G425" t="b">
+        <v>1</v>
+      </c>
+      <c r="H425" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I425" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J425" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K425" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L425" s="2" t="inlineStr">
+      <c r="I425" t="b">
+        <v>1</v>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K425" t="b">
+        <v>1</v>
+      </c>
+      <c r="L425" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="2" t="n">
+      <c r="A426" t="n">
         <v>39</v>
       </c>
-      <c r="B426" s="2" t="inlineStr">
+      <c r="B426" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C426" s="2" t="inlineStr">
+      <c r="C426" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="D426" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E426" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F426" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G426" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H426" s="2" t="inlineStr">
+      <c r="D426" t="n">
+        <v>1</v>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G426" t="b">
+        <v>1</v>
+      </c>
+      <c r="H426" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I426" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J426" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K426" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L426" s="2" t="inlineStr">
+      <c r="I426" t="b">
+        <v>1</v>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K426" t="b">
+        <v>1</v>
+      </c>
+      <c r="L426" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="2" t="n">
+      <c r="A427" t="n">
         <v>39</v>
       </c>
-      <c r="B427" s="2" t="inlineStr">
+      <c r="B427" t="inlineStr">
         <is>
           <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C427" s="2" t="inlineStr">
+      <c r="C427" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D427" s="2" t="n">
+      <c r="D427" t="n">
         <v>2</v>
       </c>
-      <c r="E427" s="2" t="inlineStr">
+      <c r="E427" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F427" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G427" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H427" s="2" t="inlineStr">
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G427" t="b">
+        <v>1</v>
+      </c>
+      <c r="H427" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I427" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J427" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K427" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L427" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I427" t="b">
+        <v>1</v>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K427" t="b">
+        <v>1</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="F436" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G436" s="2" t="b">
@@ -23117,7 +23117,7 @@
       </c>
       <c r="L436" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23717,7 +23717,7 @@
       </c>
       <c r="F448" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G448" s="2" t="b">
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23741,7 +23741,7 @@
       </c>
       <c r="L448" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23769,7 +23769,7 @@
       </c>
       <c r="F449" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G449" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="L449" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23833,277 +23833,277 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L450" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B451" s="2" t="inlineStr">
+        <is>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+        </is>
+      </c>
+      <c r="C451" s="2" t="inlineStr">
+        <is>
+          <t>Cannot</t>
+        </is>
+      </c>
+      <c r="D451" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E451" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F451" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G451" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H451" s="2" t="inlineStr">
+        <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L450" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="n">
+      <c r="I451" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J451" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K451" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L451" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B451" t="inlineStr">
+      <c r="B452" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Cannot</t>
-        </is>
-      </c>
-      <c r="D451" t="n">
-        <v>4</v>
-      </c>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G451" t="b">
-        <v>1</v>
-      </c>
-      <c r="H451" t="inlineStr">
+      <c r="C452" s="2" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="D452" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E452" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F452" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G452" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H452" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I451" t="b">
-        <v>1</v>
-      </c>
-      <c r="J451" t="inlineStr">
+      <c r="I452" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J452" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K452" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L452" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B453" s="2" t="inlineStr">
+        <is>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+        </is>
+      </c>
+      <c r="C453" s="2" t="inlineStr">
+        <is>
+          <t>Follow</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E453" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K451" t="b">
-        <v>1</v>
-      </c>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="n">
+      <c r="I453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B452" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>enable</t>
-        </is>
-      </c>
-      <c r="D452" t="n">
-        <v>5</v>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G452" t="b">
-        <v>1</v>
-      </c>
-      <c r="H452" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
+        <is>
+          <t>Me</t>
+        </is>
+      </c>
+      <c r="D454" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I452" t="b">
-        <v>1</v>
-      </c>
-      <c r="J452" t="inlineStr">
+      <c r="I454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B455" s="2" t="inlineStr">
+        <is>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+        </is>
+      </c>
+      <c r="C455" s="2" t="inlineStr">
+        <is>
+          <t>Mode</t>
+        </is>
+      </c>
+      <c r="D455" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K452" t="b">
-        <v>1</v>
-      </c>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="n">
-        <v>41</v>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
-        </is>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>Follow</t>
-        </is>
-      </c>
-      <c r="D453" t="n">
-        <v>6</v>
-      </c>
-      <c r="E453" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="n">
-        <v>41</v>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Me</t>
-        </is>
-      </c>
-      <c r="D454" t="n">
-        <v>7</v>
-      </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="n">
-        <v>41</v>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>Mode</t>
-        </is>
-      </c>
-      <c r="D455" t="n">
-        <v>8</v>
-      </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
+      <c r="I455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25514,366 +25514,366 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" t="n">
         <v>45</v>
       </c>
-      <c r="B483" s="2" t="inlineStr">
+      <c r="B483" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C483" s="2" t="inlineStr">
+      <c r="C483" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D483" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E483" s="2" t="inlineStr">
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
+      <c r="E483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" s="2" t="inlineStr">
+      <c r="F483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" s="2" t="inlineStr">
+      <c r="G483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J483" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L483" s="2" t="inlineStr">
+      <c r="I483" t="b">
+        <v>1</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K483" t="b">
+        <v>1</v>
+      </c>
+      <c r="L483" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" t="n">
         <v>45</v>
       </c>
-      <c r="B484" s="2" t="inlineStr">
+      <c r="B484" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C484" s="2" t="inlineStr">
+      <c r="C484" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D484" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E484" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F484" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G484" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" s="2" t="inlineStr">
+      <c r="D484" t="n">
+        <v>1</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J484" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L484" s="2" t="inlineStr">
+      <c r="I484" t="b">
+        <v>1</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K484" t="b">
+        <v>1</v>
+      </c>
+      <c r="L484" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="2" t="n">
+      <c r="A485" t="n">
         <v>45</v>
       </c>
-      <c r="B485" s="2" t="inlineStr">
+      <c r="B485" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C485" s="2" t="inlineStr">
+      <c r="C485" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="D485" s="2" t="n">
+      <c r="D485" t="n">
         <v>2</v>
       </c>
-      <c r="E485" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F485" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G485" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H485" s="2" t="inlineStr">
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G485" t="b">
+        <v>1</v>
+      </c>
+      <c r="H485" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I485" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J485" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K485" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L485" s="2" t="inlineStr">
+      <c r="I485" t="b">
+        <v>1</v>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K485" t="b">
+        <v>1</v>
+      </c>
+      <c r="L485" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="2" t="n">
+      <c r="A486" t="n">
         <v>45</v>
       </c>
-      <c r="B486" s="2" t="inlineStr">
+      <c r="B486" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C486" s="2" t="inlineStr">
+      <c r="C486" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D486" s="2" t="n">
+      <c r="D486" t="n">
         <v>3</v>
       </c>
-      <c r="E486" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F486" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G486" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H486" s="2" t="inlineStr">
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G486" t="b">
+        <v>1</v>
+      </c>
+      <c r="H486" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I486" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J486" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K486" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L486" s="2" t="inlineStr">
+      <c r="I486" t="b">
+        <v>1</v>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K486" t="b">
+        <v>1</v>
+      </c>
+      <c r="L486" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="2" t="n">
+      <c r="A487" t="n">
         <v>45</v>
       </c>
-      <c r="B487" s="2" t="inlineStr">
+      <c r="B487" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C487" s="2" t="inlineStr">
+      <c r="C487" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D487" s="2" t="n">
+      <c r="D487" t="n">
         <v>4</v>
       </c>
-      <c r="E487" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F487" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G487" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H487" s="2" t="inlineStr">
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G487" t="b">
+        <v>1</v>
+      </c>
+      <c r="H487" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I487" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J487" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K487" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L487" s="2" t="inlineStr">
+      <c r="I487" t="b">
+        <v>1</v>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K487" t="b">
+        <v>1</v>
+      </c>
+      <c r="L487" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="n">
+      <c r="A488" t="n">
         <v>45</v>
       </c>
-      <c r="B488" s="2" t="inlineStr">
+      <c r="B488" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C488" s="2" t="inlineStr">
+      <c r="C488" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D488" s="2" t="n">
+      <c r="D488" t="n">
         <v>5</v>
       </c>
-      <c r="E488" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F488" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G488" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H488" s="2" t="inlineStr">
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G488" t="b">
+        <v>1</v>
+      </c>
+      <c r="H488" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I488" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J488" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K488" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L488" s="2" t="inlineStr">
+      <c r="I488" t="b">
+        <v>1</v>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K488" t="b">
+        <v>1</v>
+      </c>
+      <c r="L488" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="2" t="n">
+      <c r="A489" t="n">
         <v>45</v>
       </c>
-      <c r="B489" s="2" t="inlineStr">
+      <c r="B489" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C489" s="2" t="inlineStr">
+      <c r="C489" t="inlineStr">
         <is>
           <t>slow</t>
         </is>
       </c>
-      <c r="D489" s="2" t="n">
+      <c r="D489" t="n">
         <v>6</v>
       </c>
-      <c r="E489" s="2" t="inlineStr">
+      <c r="E489" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F489" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G489" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H489" s="2" t="inlineStr">
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G489" t="b">
+        <v>1</v>
+      </c>
+      <c r="H489" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I489" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J489" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K489" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L489" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I489" t="b">
+        <v>1</v>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K489" t="b">
+        <v>1</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25901,7 +25901,7 @@
       </c>
       <c r="F490" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G490" s="2" t="b">
@@ -25913,11 +25913,11 @@
         </is>
       </c>
       <c r="I490" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J490" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K490" s="2" t="b">
@@ -25965,11 +25965,11 @@
         </is>
       </c>
       <c r="I491" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J491" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K491" s="2" t="b">
@@ -26017,11 +26017,11 @@
         </is>
       </c>
       <c r="I492" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J492" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K492" s="2" t="b">
@@ -26069,11 +26069,11 @@
         </is>
       </c>
       <c r="I493" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J493" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K493" s="2" t="b">
@@ -26121,11 +26121,11 @@
         </is>
       </c>
       <c r="I494" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J494" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K494" s="2" t="b">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26173,11 +26173,11 @@
         </is>
       </c>
       <c r="I495" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J495" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
